--- a/docs/UC-TestMatrix.xlsx
+++ b/docs/UC-TestMatrix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="127">
   <si>
     <t>Unified Client Agent Project - Test Matrix</t>
   </si>
@@ -168,15 +168,6 @@
     <t>Linux - Ubuntu                                     Join Domain</t>
   </si>
   <si>
-    <t>Linux - Linux variation:  xxxxxx     Join Domain</t>
-  </si>
-  <si>
-    <t>Linux - Linux variation:  xxxxxx     UnJoin Domain</t>
-  </si>
-  <si>
-    <t>Linux - Linux variation:  xxxxxx     Reboot</t>
-  </si>
-  <si>
     <t>7a</t>
   </si>
   <si>
@@ -228,24 +219,12 @@
     <t>5e</t>
   </si>
   <si>
-    <t>6d</t>
-  </si>
-  <si>
-    <t>6e</t>
-  </si>
-  <si>
     <t>Linux - Ubuntu                                    Asset Update</t>
   </si>
   <si>
-    <t>Linux - Linux variation:  xxxxxx     Asset Update</t>
-  </si>
-  <si>
     <t>Linux - Ubuntu                                    Auto EIL Update</t>
   </si>
   <si>
-    <t>Linux - Linux variation:  xxxxxx     Auto EIL Update</t>
-  </si>
-  <si>
     <t>Resolution Date</t>
   </si>
   <si>
@@ -255,12 +234,6 @@
     <t>7c</t>
   </si>
   <si>
-    <t>7e</t>
-  </si>
-  <si>
-    <t>7d</t>
-  </si>
-  <si>
     <t>3d</t>
   </si>
   <si>
@@ -277,6 +250,153 @@
   </si>
   <si>
     <t>Linux Client - Lab Physical              EIL Deployment</t>
+  </si>
+  <si>
+    <t>OS version</t>
+  </si>
+  <si>
+    <t>Windows 7 Ent 64</t>
+  </si>
+  <si>
+    <t>XP sp3 32 bit</t>
+  </si>
+  <si>
+    <t>NT Svr 2003 SP1 32</t>
+  </si>
+  <si>
+    <t>Linux: Ubuntu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supported Linux platforms (RHEL, CentOS, Ubuntu, Slackware, Slax, SuSE, XenClient/XenServer etc.) </t>
+  </si>
+  <si>
+    <t>Linux:  RHEL</t>
+  </si>
+  <si>
+    <t>Linux:  CentOS</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:  RHEL        Auto EIL Update</t>
+  </si>
+  <si>
+    <t>17a</t>
+  </si>
+  <si>
+    <t>17b</t>
+  </si>
+  <si>
+    <t>17c</t>
+  </si>
+  <si>
+    <t>17d</t>
+  </si>
+  <si>
+    <t>17e</t>
+  </si>
+  <si>
+    <t>Linux:  Slackware</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:  Slackware     Reboot</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:  Slackware     Asset Update</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:  Slackware     Auto EIL Update</t>
+  </si>
+  <si>
+    <t>8a</t>
+  </si>
+  <si>
+    <t>8b</t>
+  </si>
+  <si>
+    <t>8c</t>
+  </si>
+  <si>
+    <t>Linux:  Slax</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:  RHEL        Reboot</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:  RHEL        Asset Update</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:  CentOS   Reboot</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:  CentOS   Asset Update</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:  CentOS   Auto EIL Update</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:  Slax        Reboot</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:  Slax        Asset Update</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>10b</t>
+  </si>
+  <si>
+    <t>11c</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:  SuSE       Reboot</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:  SuSE        Asset Update</t>
+  </si>
+  <si>
+    <t>Linux:  SuSE</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>9c</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>10c</t>
+  </si>
+  <si>
+    <t>Linux:   XenClient/XenServer</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:   XenClient/XenServer  Reboot</t>
+  </si>
+  <si>
+    <t>Linux - Linux variation:   XenClient/XenServer  Asset Update</t>
+  </si>
+  <si>
+    <t>11a</t>
+  </si>
+  <si>
+    <t>11b</t>
+  </si>
+  <si>
+    <t>Unbuntudev3</t>
+  </si>
+  <si>
+    <t>Unbuntudev4</t>
+  </si>
+  <si>
+    <t>Unbuntudev5</t>
+  </si>
+  <si>
+    <t>Unbuntudev6</t>
+  </si>
+  <si>
+    <t>Unbuntudev7</t>
   </si>
 </sst>
 </file>
@@ -622,30 +742,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="3" width="46.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -653,34 +775,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -688,84 +813,87 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -773,84 +901,87 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -858,84 +989,87 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -943,84 +1077,87 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
         <v>64</v>
       </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D25" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1028,251 +1165,507 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
       <c r="E27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
       <c r="E28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
       <c r="E29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
         <v>68</v>
       </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" t="s">
         <v>74</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" t="s">
         <v>16</v>
       </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="E62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" t="s">
         <v>18</v>
       </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" t="s">
-        <v>85</v>
+      <c r="E63" t="s">
+        <v>76</v>
+      </c>
+      <c r="F63" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/docs/UC-TestMatrix.xlsx
+++ b/docs/UC-TestMatrix.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="61">
   <si>
     <t>Unified Client Agent Project - Test Matrix</t>
   </si>
@@ -148,6 +148,9 @@
     <t>RHEL 6.0</t>
   </si>
   <si>
+    <t>RHEL 6.2</t>
+  </si>
+  <si>
     <t>SuSE Client – Lab Physical</t>
   </si>
   <si>
@@ -178,10 +181,10 @@
     <t>Slackware 13.37</t>
   </si>
   <si>
+    <t>Sam, Stewart</t>
+  </si>
+  <si>
     <t>SLAX – Asset Update</t>
-  </si>
-  <si>
-    <t>Sam, Stewart</t>
   </si>
   <si>
     <t>Notes:</t>
@@ -398,36 +401,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A120" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B138" activeCellId="0" pane="topLeft" sqref="B138"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A72" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="topLeft" topLeftCell="A72" xSplit="0" ySplit="-1"/>
+      <selection activeCell="D95" activeCellId="0" pane="topLeft" sqref="D95"/>
+      <selection activeCell="A72" activeCellId="0" pane="bottomLeft" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.478431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0117647058823"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.243137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1490196078431"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5725490196078"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.02745098039216"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.6509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.90980392156863"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.6196078431373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.9176470588235"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.3098039215686"/>
-    <col collapsed="false" hidden="false" max="257" min="14" style="0" width="10.2705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.643137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.09803921568627"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.98039215686275"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.7882352941176"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0823529411765"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.4509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="14" style="0" width="10.3725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2" s="1">
-      <c r="A2" s="0"/>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="2" s="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -465,12 +470,12 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3" s="3">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="3" s="3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="4">
       <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
@@ -484,7 +489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="5">
       <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
@@ -495,7 +500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="6">
       <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
@@ -506,7 +511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="7">
       <c r="B7" s="0" t="s">
         <v>14</v>
       </c>
@@ -517,7 +522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="8">
       <c r="B8" s="0" t="s">
         <v>14</v>
       </c>
@@ -528,7 +533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="10">
       <c r="B10" s="0" t="s">
         <v>14</v>
       </c>
@@ -542,7 +547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="11">
       <c r="B11" s="0" t="s">
         <v>14</v>
       </c>
@@ -553,7 +558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="12">
       <c r="B12" s="0" t="s">
         <v>14</v>
       </c>
@@ -564,7 +569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="13">
       <c r="B13" s="0" t="s">
         <v>14</v>
       </c>
@@ -575,7 +580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="14">
       <c r="B14" s="0" t="s">
         <v>14</v>
       </c>
@@ -586,7 +591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="16">
       <c r="B16" s="0" t="s">
         <v>14</v>
       </c>
@@ -600,7 +605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="17">
       <c r="B17" s="0" t="s">
         <v>14</v>
       </c>
@@ -611,7 +616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="18">
       <c r="B18" s="0" t="s">
         <v>14</v>
       </c>
@@ -622,7 +627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="19">
       <c r="B19" s="0" t="s">
         <v>14</v>
       </c>
@@ -633,7 +638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="20">
       <c r="B20" s="0" t="s">
         <v>14</v>
       </c>
@@ -644,7 +649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="22">
       <c r="B22" s="0" t="s">
         <v>14</v>
       </c>
@@ -658,7 +663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="23">
       <c r="B23" s="0" t="s">
         <v>14</v>
       </c>
@@ -669,7 +674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="24">
       <c r="B24" s="0" t="s">
         <v>14</v>
       </c>
@@ -680,7 +685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="25">
       <c r="B25" s="0" t="s">
         <v>14</v>
       </c>
@@ -691,7 +696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="26">
       <c r="B26" s="0" t="s">
         <v>14</v>
       </c>
@@ -702,7 +707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="28">
       <c r="B28" s="0" t="s">
         <v>14</v>
       </c>
@@ -716,7 +721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="29">
       <c r="B29" s="0" t="s">
         <v>14</v>
       </c>
@@ -727,7 +732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="30">
       <c r="B30" s="0" t="s">
         <v>14</v>
       </c>
@@ -738,7 +743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="31">
       <c r="B31" s="0" t="s">
         <v>14</v>
       </c>
@@ -749,7 +754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="32">
       <c r="B32" s="0" t="s">
         <v>14</v>
       </c>
@@ -760,7 +765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="34">
       <c r="B34" s="0" t="s">
         <v>14</v>
       </c>
@@ -774,7 +779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="35">
       <c r="B35" s="0" t="s">
         <v>14</v>
       </c>
@@ -785,7 +790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="36">
       <c r="B36" s="0" t="s">
         <v>14</v>
       </c>
@@ -796,7 +801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="37">
       <c r="B37" s="0" t="s">
         <v>14</v>
       </c>
@@ -807,7 +812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="38">
       <c r="B38" s="0" t="s">
         <v>14</v>
       </c>
@@ -818,7 +823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="40">
       <c r="B40" s="0" t="s">
         <v>14</v>
       </c>
@@ -832,7 +837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="41">
       <c r="B41" s="0" t="s">
         <v>14</v>
       </c>
@@ -843,7 +848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="42">
       <c r="B42" s="0" t="s">
         <v>14</v>
       </c>
@@ -854,7 +859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="43">
       <c r="B43" s="0" t="s">
         <v>14</v>
       </c>
@@ -865,7 +870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="44">
       <c r="B44" s="0" t="s">
         <v>14</v>
       </c>
@@ -876,12 +881,12 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="46" s="3">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="46" s="3">
       <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="47">
       <c r="B47" s="0" t="s">
         <v>29</v>
       </c>
@@ -898,7 +903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="48">
       <c r="B48" s="0" t="s">
         <v>29</v>
       </c>
@@ -912,7 +917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="49">
       <c r="B49" s="0" t="s">
         <v>29</v>
       </c>
@@ -926,7 +931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="50">
       <c r="B50" s="0" t="s">
         <v>29</v>
       </c>
@@ -940,7 +945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="51">
       <c r="B51" s="0" t="s">
         <v>29</v>
       </c>
@@ -954,7 +959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="53">
       <c r="B53" s="0" t="s">
         <v>32</v>
       </c>
@@ -968,7 +973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="54">
       <c r="B54" s="0" t="s">
         <v>32</v>
       </c>
@@ -979,7 +984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="55">
       <c r="B55" s="0" t="s">
         <v>32</v>
       </c>
@@ -990,7 +995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="56">
       <c r="B56" s="0" t="s">
         <v>32</v>
       </c>
@@ -1001,7 +1006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="57">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="57">
       <c r="B57" s="0" t="s">
         <v>32</v>
       </c>
@@ -1012,7 +1017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="59">
       <c r="B59" s="0" t="s">
         <v>32</v>
       </c>
@@ -1026,7 +1031,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="60">
       <c r="B60" s="0" t="s">
         <v>32</v>
       </c>
@@ -1037,7 +1042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="61">
       <c r="B61" s="0" t="s">
         <v>32</v>
       </c>
@@ -1048,7 +1053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="62">
       <c r="B62" s="0" t="s">
         <v>32</v>
       </c>
@@ -1059,7 +1064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="63">
       <c r="B63" s="0" t="s">
         <v>32</v>
       </c>
@@ -1070,7 +1075,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="65">
       <c r="B65" s="0" t="s">
         <v>35</v>
       </c>
@@ -1084,7 +1089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="66">
       <c r="B66" s="0" t="s">
         <v>35</v>
       </c>
@@ -1095,7 +1100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="67">
       <c r="B67" s="0" t="s">
         <v>35</v>
       </c>
@@ -1106,7 +1111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="68">
       <c r="B68" s="0" t="s">
         <v>35</v>
       </c>
@@ -1117,7 +1122,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="69">
       <c r="B69" s="0" t="s">
         <v>35</v>
       </c>
@@ -1128,7 +1133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="71">
       <c r="B71" s="0" t="s">
         <v>35</v>
       </c>
@@ -1142,7 +1147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="72">
       <c r="B72" s="0" t="s">
         <v>35</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="73">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="73">
       <c r="B73" s="0" t="s">
         <v>35</v>
       </c>
@@ -1164,7 +1169,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="74">
       <c r="B74" s="0" t="s">
         <v>35</v>
       </c>
@@ -1175,7 +1180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="75">
       <c r="B75" s="0" t="s">
         <v>35</v>
       </c>
@@ -1186,7 +1191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="77">
       <c r="B77" s="0" t="s">
         <v>38</v>
       </c>
@@ -1200,7 +1205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="78">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="78">
       <c r="B78" s="0" t="s">
         <v>38</v>
       </c>
@@ -1211,7 +1216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="79">
       <c r="B79" s="0" t="s">
         <v>38</v>
       </c>
@@ -1222,7 +1227,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="80">
       <c r="B80" s="0" t="s">
         <v>38</v>
       </c>
@@ -1233,7 +1238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="81">
       <c r="B81" s="0" t="s">
         <v>38</v>
       </c>
@@ -1244,7 +1249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="83">
       <c r="B83" s="0" t="s">
         <v>40</v>
       </c>
@@ -1258,7 +1263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="84">
       <c r="B84" s="0" t="s">
         <v>40</v>
       </c>
@@ -1269,7 +1274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="85">
       <c r="B85" s="0" t="s">
         <v>40</v>
       </c>
@@ -1280,7 +1285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="86">
       <c r="B86" s="0" t="s">
         <v>40</v>
       </c>
@@ -1291,7 +1296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="87">
       <c r="B87" s="0" t="s">
         <v>40</v>
       </c>
@@ -1302,7 +1307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="89">
       <c r="B89" s="0" t="s">
         <v>40</v>
       </c>
@@ -1316,7 +1321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="90">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="90">
       <c r="B90" s="0" t="s">
         <v>40</v>
       </c>
@@ -1327,7 +1332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="91">
       <c r="B91" s="0" t="s">
         <v>40</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="92">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="92">
       <c r="B92" s="0" t="s">
         <v>40</v>
       </c>
@@ -1349,7 +1354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="93">
       <c r="B93" s="0" t="s">
         <v>40</v>
       </c>
@@ -1360,15 +1365,15 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="95">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="95">
       <c r="B95" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>44</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>31</v>
@@ -1376,7 +1381,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="96">
       <c r="B96" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>18</v>
@@ -1385,9 +1390,9 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="97">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="97">
       <c r="B97" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>19</v>
@@ -1396,9 +1401,9 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="98">
       <c r="B98" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>20</v>
@@ -1407,9 +1412,9 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="99">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="99">
       <c r="B99" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>21</v>
@@ -1420,7 +1425,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="101">
       <c r="B101" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>15</v>
@@ -1431,19 +1436,13 @@
       <c r="F101" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G101" s="0" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="102">
       <c r="B102" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="F102" s="0" t="s">
         <v>31</v>
@@ -1454,7 +1453,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="103">
       <c r="B103" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>19</v>
@@ -1468,7 +1467,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="104">
       <c r="B104" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>20</v>
@@ -1482,7 +1481,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="105">
       <c r="B105" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>21</v>
@@ -1491,18 +1490,23 @@
         <v>31</v>
       </c>
       <c r="G105" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="106">
+      <c r="G106" s="0" t="s">
         <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="107">
       <c r="B107" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>31</v>
@@ -1510,10 +1514,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="108">
       <c r="B108" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>31</v>
@@ -1521,7 +1528,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="109">
       <c r="B109" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>19</v>
@@ -1532,7 +1539,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="110">
       <c r="B110" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>20</v>
@@ -1543,7 +1550,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="111">
       <c r="B111" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>21</v>
@@ -1554,13 +1561,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="113">
       <c r="B113" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>31</v>
@@ -1568,7 +1575,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="114">
       <c r="B114" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>18</v>
@@ -1579,7 +1586,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="115">
       <c r="B115" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>19</v>
@@ -1590,7 +1597,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="116">
       <c r="B116" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>20</v>
@@ -1601,7 +1608,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="117">
       <c r="B117" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>21</v>
@@ -1610,33 +1617,27 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="119">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="119">
       <c r="B119" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C119" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="F119" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G119" s="0" t="s">
         <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="120">
       <c r="B120" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="F120" s="0" t="s">
         <v>31</v>
       </c>
@@ -1644,9 +1645,9 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="121">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="121">
       <c r="B121" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>19</v>
@@ -1658,9 +1659,9 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="122">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="122">
       <c r="B122" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>20</v>
@@ -1672,9 +1673,9 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="123">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="123">
       <c r="B123" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>21</v>
@@ -1686,9 +1687,14 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="125">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="124">
+      <c r="G124" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="125">
       <c r="B125" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>15</v>
@@ -1697,91 +1703,154 @@
         <v>53</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="126">
       <c r="B126" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="D126" s="0" t="s">
+        <v>47</v>
+      </c>
       <c r="F126" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="127">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="127">
       <c r="B127" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G127" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="128">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="128">
       <c r="B128" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="129">
       <c r="B129" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>21</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G129" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="132">
-      <c r="B132" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="130">
+      <c r="G130" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="131">
+      <c r="B131" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="0" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="133">
+      <c r="F131" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="132">
+      <c r="B132" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="133">
       <c r="B133" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="134">
+      <c r="B134" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="135">
+      <c r="B135" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="138">
+      <c r="B138" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="134">
-      <c r="B134" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="139">
+      <c r="B139" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="136">
-      <c r="B136" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="140">
+      <c r="B140" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="138">
-      <c r="B138" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="142">
+      <c r="B142" s="0" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="144">
+      <c r="B144" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1803,11 +1872,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.67058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1828,11 +1900,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.67058823529412"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
